--- a/qsort_report.xlsx
+++ b/qsort_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkast\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkast\Code\ParallelProcessingProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3614E666-B7E6-4D5F-AFBD-F1CC5970A435}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DE111D02-35C0-4F19-A008-2BBD3FF94F26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14102,7 +14102,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1000" sqref="A1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
